--- a/meta/program/BlancoKeyGeneratorKtFieldStructure.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtFieldStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10245543-F06C-5C45-9FB0-1E20FE9D9E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC058CC-876C-024A-8353-C94639F2A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="10000" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>nullable</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>java.lang.Boolean</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -358,17 +354,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>abstract</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>abstract変数かどうか</t>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ヘンスウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>defaultKt</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -469,6 +454,18 @@
   </si>
   <si>
     <t>キージェネレータのフィールドをあらわすバリューオブジェクトクラス。このクラスの設定情報をもとにフィールドとセッター・ゲッターが自動生成されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>notNullable</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>keyitem</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キー項目かどうか</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1424,8 +1421,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1477,7 +1474,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
@@ -1490,7 +1487,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -1503,7 +1500,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1791,7 +1788,7 @@
         <v>55</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F31" s="46"/>
       <c r="G31"/>
@@ -1820,14 +1817,14 @@
         <v>7</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33"/>
@@ -1838,14 +1835,14 @@
         <v>8</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34"/>
@@ -1856,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>54</v>
@@ -1865,7 +1862,7 @@
         <v>55</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F35" s="46"/>
       <c r="G35"/>
@@ -1876,14 +1873,14 @@
         <v>10</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36"/>
@@ -1894,16 +1891,16 @@
         <v>11</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C37" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>63</v>
-      </c>
       <c r="E37" s="42" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37"/>
@@ -1914,16 +1911,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>63</v>
+      <c r="D38" s="47" t="b">
+        <v>1</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38"/>
@@ -1934,16 +1931,16 @@
         <v>13</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="47" t="s">
-        <v>63</v>
-      </c>
       <c r="E39" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39"/>
@@ -1954,16 +1951,16 @@
         <v>14</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>63</v>
-      </c>
       <c r="E40" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40"/>
@@ -1974,16 +1971,16 @@
         <v>15</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>63</v>
-      </c>
       <c r="E41" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41"/>
@@ -2140,14 +2137,14 @@
         <v>24</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50"/>

--- a/meta/program/BlancoKeyGeneratorKtFieldStructure.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtFieldStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC058CC-876C-024A-8353-C94639F2A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302EEACD-AC58-B747-B3A7-DC042E8A1087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="10000" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1917,7 +1917,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>65</v>
@@ -2142,7 +2142,9 @@
       <c r="C50" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="42"/>
+      <c r="D50" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="E50" s="42" t="s">
         <v>80</v>
       </c>
